--- a/1st.xlsx
+++ b/1st.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manme\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194EAA5B-0988-42D9-8C68-2D2776DBD029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23133428-02E1-4D26-883C-152146B77317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,15 +27,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>45yasx</t>
+    <t>jsnus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -63,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,11 +386,12 @@
       <c r="G2">
         <v>567</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1st.xlsx
+++ b/1st.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manme\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194EAA5B-0988-42D9-8C68-2D2776DBD029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05CBB0A-DD2F-433E-ACEC-D07FDF938F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>45yasx</t>
+    <t>gjfyfjhf</t>
   </si>
 </sst>
 </file>
